--- a/2-Empirical-Evidence/raw_data/Washington.xlsx
+++ b/2-Empirical-Evidence/raw_data/Washington.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN530010000000003</t>
@@ -1006,10 +1022,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>10.6</v>
@@ -1104,10 +1132,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>822.0</v>
@@ -1202,10 +1240,20 @@
       <c r="AF6" t="n" s="8">
         <v>668.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>529.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>481.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>443.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>6941.0</v>
@@ -1300,10 +1348,20 @@
       <c r="AF7" t="n" s="8">
         <v>8640.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>9213.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>9335.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>9178.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>7763.0</v>
@@ -1398,10 +1456,20 @@
       <c r="AF8" t="n" s="8">
         <v>9308.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>9742.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>9816.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>9621.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>5.2</v>
@@ -1496,10 +1564,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>488.0</v>
@@ -1594,10 +1672,20 @@
       <c r="AF10" t="n" s="8">
         <v>532.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>398.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>394.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>362.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>8947.0</v>
@@ -1692,10 +1780,20 @@
       <c r="AF11" t="n" s="8">
         <v>9835.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>10052.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>10165.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>10265.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>9435.0</v>
@@ -1790,10 +1888,20 @@
       <c r="AF12" t="n" s="8">
         <v>10367.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>10450.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>10559.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>10627.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>6.2</v>
@@ -1888,10 +1996,20 @@
       <c r="AF13" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>3797.0</v>
@@ -1986,10 +2104,20 @@
       <c r="AF14" t="n" s="8">
         <v>8366.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>5815.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>5047.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>4834.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>57439.0</v>
@@ -2084,10 +2212,20 @@
       <c r="AF15" t="n" s="8">
         <v>94278.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>97454.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>100627.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>101561.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>61236.0</v>
@@ -2182,10 +2320,20 @@
       <c r="AF16" t="n" s="8">
         <v>102644.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>103269.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>105674.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>106395.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>8.6</v>
@@ -2280,10 +2428,20 @@
       <c r="AF17" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>2734.0</v>
@@ -2378,10 +2536,20 @@
       <c r="AF18" t="n" s="8">
         <v>3656.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>2352.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>2037.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>1897.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>28959.0</v>
@@ -2476,10 +2644,20 @@
       <c r="AF19" t="n" s="8">
         <v>40414.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>41558.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>42316.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>42544.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>31693.0</v>
@@ -2574,10 +2752,20 @@
       <c r="AF20" t="n" s="8">
         <v>44070.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>43910.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>44353.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>44441.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>7.0</v>
@@ -2672,10 +2860,20 @@
       <c r="AF21" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>1627.0</v>
@@ -2770,10 +2968,20 @@
       <c r="AF22" t="n" s="8">
         <v>2949.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1888.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>1644.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>1544.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>21539.0</v>
@@ -2868,10 +3076,20 @@
       <c r="AF23" t="n" s="8">
         <v>26040.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>26854.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>27267.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>27910.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>23166.0</v>
@@ -2966,10 +3184,20 @@
       <c r="AF24" t="n" s="8">
         <v>28989.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>28742.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>28911.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>29454.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>4.7</v>
@@ -3064,10 +3292,20 @@
       <c r="AF25" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>6027.0</v>
@@ -3162,10 +3400,20 @@
       <c r="AF26" t="n" s="8">
         <v>20550.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>13252.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>11053.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>10739.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>122398.0</v>
@@ -3260,10 +3508,20 @@
       <c r="AF27" t="n" s="8">
         <v>224113.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>228130.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>235641.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>237865.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>128425.0</v>
@@ -3358,10 +3616,20 @@
       <c r="AF28" t="n" s="8">
         <v>244663.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>241382.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>246694.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>248604.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>12.6</v>
@@ -3456,10 +3724,20 @@
       <c r="AF29" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>187.0</v>
@@ -3554,10 +3832,20 @@
       <c r="AF30" t="n" s="8">
         <v>125.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>1302.0</v>
@@ -3652,10 +3940,20 @@
       <c r="AF31" t="n" s="8">
         <v>1597.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>1635.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>1647.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>1651.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>1489.0</v>
@@ -3750,10 +4048,20 @@
       <c r="AF32" t="n" s="8">
         <v>1722.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>1730.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>1738.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>1727.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.9</v>
@@ -3848,10 +4156,20 @@
       <c r="AF33" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>2632.0</v>
@@ -3946,10 +4264,20 @@
       <c r="AF34" t="n" s="8">
         <v>4474.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>3040.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>2619.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>2459.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>35548.0</v>
@@ -4044,10 +4372,20 @@
       <c r="AF35" t="n" s="8">
         <v>43888.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>44643.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>45801.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>46067.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>38180.0</v>
@@ -4142,10 +4480,20 @@
       <c r="AF36" t="n" s="8">
         <v>48362.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>47683.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>48420.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>48526.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>7.8</v>
@@ -4240,10 +4588,20 @@
       <c r="AF37" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1244.0</v>
@@ -4338,10 +4696,20 @@
       <c r="AF38" t="n" s="8">
         <v>1785.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>1197.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>1098.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>1019.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>14762.0</v>
@@ -4436,10 +4804,20 @@
       <c r="AF39" t="n" s="8">
         <v>19450.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>20001.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>20583.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>20751.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>16006.0</v>
@@ -4534,10 +4912,20 @@
       <c r="AF40" t="n" s="8">
         <v>21235.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>21198.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>21681.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>21770.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>11.8</v>
@@ -4632,10 +5020,20 @@
       <c r="AF41" t="n" s="10">
         <v>11.5</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>332.0</v>
@@ -4730,10 +5128,20 @@
       <c r="AF42" t="n" s="8">
         <v>280.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>204.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>206.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>192.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>2483.0</v>
@@ -4828,10 +5236,20 @@
       <c r="AF43" t="n" s="8">
         <v>2158.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>2093.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>2083.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>2104.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>2815.0</v>
@@ -4926,10 +5344,20 @@
       <c r="AF44" t="n" s="8">
         <v>2438.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>2297.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>2289.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>2296.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>10.4</v>
@@ -5024,10 +5452,20 @@
       <c r="AF45" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1985.0</v>
@@ -5122,10 +5560,20 @@
       <c r="AF46" t="n" s="8">
         <v>3805.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>2838.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>2571.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>2478.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>17137.0</v>
@@ -5220,10 +5668,20 @@
       <c r="AF47" t="n" s="8">
         <v>38972.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>40021.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>41354.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>40996.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>19122.0</v>
@@ -5318,10 +5776,20 @@
       <c r="AF48" t="n" s="8">
         <v>42777.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>42859.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>43925.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>43474.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>3.1</v>
@@ -5416,10 +5884,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>33.0</v>
@@ -5514,10 +5992,20 @@
       <c r="AF50" t="n" s="8">
         <v>69.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>1033.0</v>
@@ -5612,10 +6100,20 @@
       <c r="AF51" t="n" s="8">
         <v>749.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>750.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>743.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>739.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>1066.0</v>
@@ -5710,10 +6208,20 @@
       <c r="AF52" t="n" s="8">
         <v>818.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>798.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>796.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>782.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>8.8</v>
@@ -5808,10 +6316,20 @@
       <c r="AF53" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>2394.0</v>
@@ -5906,10 +6424,20 @@
       <c r="AF54" t="n" s="8">
         <v>4141.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>3088.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>2790.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>2556.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>24877.0</v>
@@ -6004,10 +6532,20 @@
       <c r="AF55" t="n" s="8">
         <v>43029.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>43287.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>45944.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>46160.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>27271.0</v>
@@ -6102,10 +6640,20 @@
       <c r="AF56" t="n" s="8">
         <v>47170.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>46375.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>48734.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>48716.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>9.5</v>
@@ -6200,10 +6748,20 @@
       <c r="AF57" t="n" s="10">
         <v>11.7</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>2625.0</v>
@@ -6298,10 +6856,20 @@
       <c r="AF58" t="n" s="8">
         <v>3375.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>2204.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>1845.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>1829.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>24871.0</v>
@@ -6396,10 +6964,20 @@
       <c r="AF59" t="n" s="8">
         <v>25442.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>26287.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>26954.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>27092.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>27496.0</v>
@@ -6494,10 +7072,20 @@
       <c r="AF60" t="n" s="8">
         <v>28817.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>28491.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>28799.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>28921.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>3.4</v>
@@ -6592,10 +7180,20 @@
       <c r="AF61" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>786.0</v>
@@ -6690,10 +7288,20 @@
       <c r="AF62" t="n" s="8">
         <v>2969.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>2031.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>1715.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>1612.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>22239.0</v>
@@ -6788,10 +7396,20 @@
       <c r="AF63" t="n" s="8">
         <v>33183.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>33843.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>34884.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>35551.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>23025.0</v>
@@ -6886,10 +7504,20 @@
       <c r="AF64" t="n" s="8">
         <v>36152.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>35874.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>36599.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>37163.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.1</v>
@@ -6984,10 +7612,20 @@
       <c r="AF65" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>425.0</v>
@@ -7082,10 +7720,20 @@
       <c r="AF66" t="n" s="8">
         <v>1221.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>785.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>663.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>628.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>7984.0</v>
@@ -7180,10 +7828,20 @@
       <c r="AF67" t="n" s="8">
         <v>11725.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>11807.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>11953.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>11877.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>8409.0</v>
@@ -7278,10 +7936,20 @@
       <c r="AF68" t="n" s="8">
         <v>12946.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>12592.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>12616.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>12505.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>3.7</v>
@@ -7376,10 +8044,20 @@
       <c r="AF69" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>31291.0</v>
@@ -7474,10 +8152,20 @@
       <c r="AF70" t="n" s="8">
         <v>99274.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>53897.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>39586.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>45801.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>824999.0</v>
@@ -7572,10 +8260,20 @@
       <c r="AF71" t="n" s="8">
         <v>1172004.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>1219480.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>1279356.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>1302991.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>856290.0</v>
@@ -7670,10 +8368,20 @@
       <c r="AF72" t="n" s="8">
         <v>1271278.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>1273377.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>1318942.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>1348792.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>4.1</v>
@@ -7768,10 +8476,20 @@
       <c r="AF73" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>3468.0</v>
@@ -7866,10 +8584,20 @@
       <c r="AF74" t="n" s="8">
         <v>9867.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>6439.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>5494.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>5315.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>81309.0</v>
@@ -7964,10 +8692,20 @@
       <c r="AF75" t="n" s="8">
         <v>118603.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>119476.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>122423.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>123784.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>84777.0</v>
@@ -8062,10 +8800,20 @@
       <c r="AF76" t="n" s="8">
         <v>128470.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>125915.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>127917.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>129099.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>7.9</v>
@@ -8160,10 +8908,20 @@
       <c r="AF77" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>997.0</v>
@@ -8258,10 +9016,20 @@
       <c r="AF78" t="n" s="8">
         <v>1994.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1370.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>1239.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>1181.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>11696.0</v>
@@ -8356,10 +9124,20 @@
       <c r="AF79" t="n" s="8">
         <v>20380.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>20142.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>21182.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>21990.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>12693.0</v>
@@ -8454,10 +9232,20 @@
       <c r="AF80" t="n" s="8">
         <v>22374.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>21512.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>22421.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>23171.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>11.9</v>
@@ -8552,10 +9340,20 @@
       <c r="AF81" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>946.0</v>
@@ -8650,10 +9448,20 @@
       <c r="AF82" t="n" s="8">
         <v>797.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>606.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>539.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>489.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>6997.0</v>
@@ -8748,10 +9556,20 @@
       <c r="AF83" t="n" s="8">
         <v>8976.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>9189.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>9221.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>9188.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>7943.0</v>
@@ -8846,10 +9664,20 @@
       <c r="AF84" t="n" s="8">
         <v>9773.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>9795.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>9760.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>9677.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>8.1</v>
@@ -8944,10 +9772,20 @@
       <c r="AF85" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>2146.0</v>
@@ -9042,10 +9880,20 @@
       <c r="AF86" t="n" s="8">
         <v>3252.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>2167.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>1979.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>1882.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>24289.0</v>
@@ -9140,10 +9988,20 @@
       <c r="AF87" t="n" s="8">
         <v>31523.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>31955.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>32560.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>33004.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>26435.0</v>
@@ -9238,10 +10096,20 @@
       <c r="AF88" t="n" s="8">
         <v>34775.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>34122.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>34539.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>34886.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>3.8</v>
@@ -9336,10 +10204,20 @@
       <c r="AF89" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>159.0</v>
@@ -9434,10 +10312,20 @@
       <c r="AF90" t="n" s="8">
         <v>313.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>230.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>235.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>227.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>4018.0</v>
@@ -9532,10 +10420,20 @@
       <c r="AF91" t="n" s="8">
         <v>4349.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>4354.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>4373.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>4447.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>4177.0</v>
@@ -9630,10 +10528,20 @@
       <c r="AF92" t="n" s="8">
         <v>4662.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>4584.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>4608.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>4674.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>5.8</v>
@@ -9728,10 +10636,20 @@
       <c r="AF93" t="n" s="10">
         <v>9.9</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>931.0</v>
@@ -9826,10 +10744,20 @@
       <c r="AF94" t="n" s="8">
         <v>2500.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>1724.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1511.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1397.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>15008.0</v>
@@ -9924,10 +10852,20 @@
       <c r="AF95" t="n" s="8">
         <v>22873.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>23124.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>23836.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>24030.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>15939.0</v>
@@ -10022,10 +10960,20 @@
       <c r="AF96" t="n" s="8">
         <v>25373.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>24848.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>25347.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>25427.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>9.6</v>
@@ -10120,10 +11068,20 @@
       <c r="AF97" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1830.0</v>
@@ -10218,10 +11176,20 @@
       <c r="AF98" t="n" s="8">
         <v>1733.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>1275.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>1186.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>1072.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>17178.0</v>
@@ -10316,10 +11284,20 @@
       <c r="AF99" t="n" s="8">
         <v>17803.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>17886.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>18356.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>18492.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>19008.0</v>
@@ -10414,10 +11392,20 @@
       <c r="AF100" t="n" s="8">
         <v>19536.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>19161.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>19542.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>19564.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>8.2</v>
@@ -10512,10 +11500,20 @@
       <c r="AF101" t="n" s="10">
         <v>10.9</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>619.0</v>
@@ -10610,10 +11608,20 @@
       <c r="AF102" t="n" s="8">
         <v>911.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>660.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>563.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>514.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>6921.0</v>
@@ -10708,10 +11716,20 @@
       <c r="AF103" t="n" s="8">
         <v>7409.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>7734.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>7986.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>8028.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>7540.0</v>
@@ -10806,10 +11824,20 @@
       <c r="AF104" t="n" s="8">
         <v>8320.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>8394.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>8549.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>8542.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>14.3</v>
@@ -10904,10 +11932,20 @@
       <c r="AF105" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>498.0</v>
@@ -11002,10 +12040,20 @@
       <c r="AF106" t="n" s="8">
         <v>523.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>384.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>336.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>309.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>2986.0</v>
@@ -11100,10 +12148,20 @@
       <c r="AF107" t="n" s="8">
         <v>4506.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>4669.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>4785.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>4838.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>3484.0</v>
@@ -11198,10 +12256,20 @@
       <c r="AF108" t="n" s="8">
         <v>5029.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>5053.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>5121.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>5147.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>4.8</v>
@@ -11296,10 +12364,20 @@
       <c r="AF109" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>13190.0</v>
@@ -11394,10 +12472,20 @@
       <c r="AF110" t="n" s="8">
         <v>43056.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>26714.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>22004.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>21355.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>264100.0</v>
@@ -11492,10 +12580,20 @@
       <c r="AF111" t="n" s="8">
         <v>406487.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>414713.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>428275.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>433735.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>277290.0</v>
@@ -11590,10 +12688,20 @@
       <c r="AF112" t="n" s="8">
         <v>449543.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>441427.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>450279.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>455090.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>2.9</v>
@@ -11688,10 +12796,20 @@
       <c r="AF113" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>147.0</v>
@@ -11786,10 +12904,20 @@
       <c r="AF114" t="n" s="8">
         <v>658.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>416.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>328.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>299.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>4961.0</v>
@@ -11884,10 +13012,20 @@
       <c r="AF115" t="n" s="8">
         <v>7495.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>7885.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>8321.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>8412.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>5108.0</v>
@@ -11982,10 +13120,20 @@
       <c r="AF116" t="n" s="8">
         <v>8153.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>8301.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>8649.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>8711.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>6.9</v>
@@ -12080,10 +13228,20 @@
       <c r="AF117" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>2715.0</v>
@@ -12178,10 +13336,20 @@
       <c r="AF118" t="n" s="8">
         <v>6074.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>3831.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>3073.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>2842.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>36761.0</v>
@@ -12276,10 +13444,20 @@
       <c r="AF119" t="n" s="8">
         <v>56176.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>56832.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>57932.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>58731.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>39476.0</v>
@@ -12374,10 +13552,20 @@
       <c r="AF120" t="n" s="8">
         <v>62250.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>60663.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>61005.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>61573.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>10.2</v>
@@ -12472,10 +13660,20 @@
       <c r="AF121" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>402.0</v>
@@ -12570,10 +13768,20 @@
       <c r="AF122" t="n" s="8">
         <v>501.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>343.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>278.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>266.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>3535.0</v>
@@ -12668,10 +13876,20 @@
       <c r="AF123" t="n" s="8">
         <v>4974.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>5058.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>5236.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>5276.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>3937.0</v>
@@ -12766,10 +13984,20 @@
       <c r="AF124" t="n" s="8">
         <v>5475.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>5401.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>5514.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>5542.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>4.2</v>
@@ -12864,10 +14092,20 @@
       <c r="AF125" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>10407.0</v>
@@ -12962,10 +14200,20 @@
       <c r="AF126" t="n" s="8">
         <v>38325.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>21331.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>15099.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>15931.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>239104.0</v>
@@ -13060,10 +14308,20 @@
       <c r="AF127" t="n" s="8">
         <v>397958.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>414010.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>434437.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>442668.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>249511.0</v>
@@ -13158,10 +14416,20 @@
       <c r="AF128" t="n" s="8">
         <v>436283.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>435341.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>449536.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>458599.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>5.6</v>
@@ -13256,10 +14524,20 @@
       <c r="AF129" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>9720.0</v>
@@ -13354,10 +14632,20 @@
       <c r="AF130" t="n" s="8">
         <v>22290.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>13899.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>11908.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>11207.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>163599.0</v>
@@ -13452,10 +14740,20 @@
       <c r="AF131" t="n" s="8">
         <v>234378.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>242856.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>249353.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>252852.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>173319.0</v>
@@ -13550,10 +14848,20 @@
       <c r="AF132" t="n" s="8">
         <v>256668.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>256755.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>261261.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>264059.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>8.4</v>
@@ -13648,10 +14956,20 @@
       <c r="AF133" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>1134.0</v>
@@ -13746,10 +15064,20 @@
       <c r="AF134" t="n" s="8">
         <v>1725.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>1260.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>1218.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>1150.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>12291.0</v>
@@ -13844,10 +15172,20 @@
       <c r="AF135" t="n" s="8">
         <v>16838.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>17443.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>17843.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>18039.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>13425.0</v>
@@ -13942,10 +15280,20 @@
       <c r="AF136" t="n" s="8">
         <v>18563.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>18703.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>19061.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>19189.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>4.9</v>
@@ -14040,10 +15388,20 @@
       <c r="AF137" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>3991.0</v>
@@ -14138,10 +15496,20 @@
       <c r="AF138" t="n" s="8">
         <v>11857.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>7502.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>6522.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>6200.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>77097.0</v>
@@ -14236,10 +15604,20 @@
       <c r="AF139" t="n" s="8">
         <v>132430.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>135881.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>140545.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>143640.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>81088.0</v>
@@ -14334,10 +15712,20 @@
       <c r="AF140" t="n" s="8">
         <v>144287.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>143383.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>147067.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>149840.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>6.1</v>
@@ -14432,10 +15820,20 @@
       <c r="AF141" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>93.0</v>
@@ -14530,10 +15928,20 @@
       <c r="AF142" t="n" s="8">
         <v>121.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>1440.0</v>
@@ -14628,10 +16036,20 @@
       <c r="AF143" t="n" s="8">
         <v>1272.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>1242.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>1261.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>1278.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>1533.0</v>
@@ -14726,10 +16144,20 @@
       <c r="AF144" t="n" s="8">
         <v>1393.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>1332.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>1349.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>1365.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>6.8</v>
@@ -14824,10 +16252,20 @@
       <c r="AF145" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>1620.0</v>
@@ -14922,10 +16360,20 @@
       <c r="AF146" t="n" s="8">
         <v>2046.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>1456.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>1335.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>1246.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>22199.0</v>
@@ -15020,10 +16468,20 @@
       <c r="AF147" t="n" s="8">
         <v>27919.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>28578.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>28721.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>28774.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>23819.0</v>
@@ -15118,10 +16576,20 @@
       <c r="AF148" t="n" s="8">
         <v>29965.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>30034.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>30056.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>30020.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>5.2</v>
@@ -15216,10 +16684,20 @@
       <c r="AF149" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>3560.0</v>
@@ -15314,10 +16792,20 @@
       <c r="AF150" t="n" s="8">
         <v>10633.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>6706.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>5305.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>4973.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>64459.0</v>
@@ -15412,10 +16900,20 @@
       <c r="AF151" t="n" s="8">
         <v>103131.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>104690.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>108778.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>110037.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>68019.0</v>
@@ -15510,10 +17008,20 @@
       <c r="AF152" t="n" s="8">
         <v>113764.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>111396.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>114083.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>115010.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>1.6</v>
@@ -15608,10 +17116,20 @@
       <c r="AF153" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>276.0</v>
@@ -15706,10 +17224,20 @@
       <c r="AF154" t="n" s="8">
         <v>1270.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>1007.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>1022.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>942.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>17248.0</v>
@@ -15804,10 +17332,20 @@
       <c r="AF155" t="n" s="8">
         <v>20985.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>22190.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>22105.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>22354.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>17524.0</v>
@@ -15902,10 +17440,20 @@
       <c r="AF156" t="n" s="8">
         <v>22255.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>23197.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>23127.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>23296.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>11.0</v>
@@ -16000,10 +17548,20 @@
       <c r="AF157" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>11305.0</v>
@@ -16098,10 +17656,20 @@
       <c r="AF158" t="n" s="8">
         <v>12514.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>8973.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>7967.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>7484.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>91815.0</v>
@@ -16196,10 +17764,20 @@
       <c r="AF159" t="n" s="8">
         <v>118188.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>120112.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>122667.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>121988.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>103120.0</v>
@@ -16294,6 +17872,16 @@
       <c r="AF160" t="n" s="8">
         <v>130702.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>129085.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>130634.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>129472.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -16304,7 +17892,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (10:53:28 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:44:43 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
